--- a/biology/Médecine/Elizabeth_M._Bright/Elizabeth_M._Bright.xlsx
+++ b/biology/Médecine/Elizabeth_M._Bright/Elizabeth_M._Bright.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elizabeth M. Bright (25 septembre 1893 – 20 octobre 1975) est une chercheuse et physiologiste américaine qui a notamment collaboré avec l'océanographe Alfred C. Redfield pour étudier les effets des radiations sur différents modèles animaux.
 </t>
@@ -511,9 +523,11 @@
           <t>Éléments biographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elizabeth M. Bright est née le 25 septembre 1893 à Chelsea, dans le Massachusetts, de David L. Bright et Emma Clark de Nouvelle Écosse. Son père est enregistré comme travailleur manuel[1]. Le 29 janvier 1911, à Chelsea, à l'âge de 17 ans, elle épouse Norman M. Menzies, âgé de 20 ans, originaire d'Écosse, chaudronnier[2]. Bright est morte le 20 octobre 1975 à Lowell[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elizabeth M. Bright est née le 25 septembre 1893 à Chelsea, dans le Massachusetts, de David L. Bright et Emma Clark de Nouvelle Écosse. Son père est enregistré comme travailleur manuel. Le 29 janvier 1911, à Chelsea, à l'âge de 17 ans, elle épouse Norman M. Menzies, âgé de 20 ans, originaire d'Écosse, chaudronnier. Bright est morte le 20 octobre 1975 à Lowell.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Woods Hole et Harvard</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1912, Bright est embauchée par l'Institut océanographique de Woods Hole, où elle travaille comme chercheuse débutante au département de physiologie, tout en occupant un poste d'assistant chercheur à la Harvard Medical School, également au département de physiologie[4],[5]. De 1918 à 1924, Bright travaille avec l'océanographe Alfred C. Redfield, étudiant les Nereis et d'autres modèles animaux et les effets sur la santé des radiations. Ils publient 12 articles en collaboration[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1912, Bright est embauchée par l'Institut océanographique de Woods Hole, où elle travaille comme chercheuse débutante au département de physiologie, tout en occupant un poste d'assistant chercheur à la Harvard Medical School, également au département de physiologie,. De 1918 à 1924, Bright travaille avec l'océanographe Alfred C. Redfield, étudiant les Nereis et d'autres modèles animaux et les effets sur la santé des radiations. Ils publient 12 articles en collaboration.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Redfield, Alfred Clarence, &amp; Bright, E. M. (1918). A quantitative study of the effect of radium radiations upon the fertilization membrane of Nereis. American Journal of Physiology. 45: 374.
 Redfield, A. C., &amp; Bright, E. M. (1919). Temperature Coefficient of the Action of ß-rays Upon the Eggs of Nereis. The Journal of general physiology. 1(3): 255-259. (From the Laboratory of Physiology, Harvard Medical School, Boston, and the Marine Biological Laboratory, Woods Hole).
